--- a/biology/Écologie/Fédération_européenne_d'écologie/Fédération_européenne_d'écologie.xlsx
+++ b/biology/Écologie/Fédération_européenne_d'écologie/Fédération_européenne_d'écologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_d%27%C3%A9cologie</t>
+          <t>Fédération_européenne_d'écologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération Européenne d'Écologie (ou European Ecological Federation) est une organisation européenne dont l'objectif est de "permettre la coopération entre les sociétés écologiques européenne pour promouvoir les sciences de l'écologie en Europe".
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_d%27%C3%A9cologie</t>
+          <t>Fédération_européenne_d'écologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les membres sont :
 Asociación Española de Ecología Terrestre, Espagne
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_d%27%C3%A9cologie</t>
+          <t>Fédération_européenne_d'écologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les présidents successifs sont :
 R. J. Berry 1990-1992
